--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C9E516-E39C-408D-85EF-4E2080C4DAF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4CE2B5-9D57-4E08-807A-E956B7C10A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,10 +109,10 @@
     <t>Ctx_color</t>
   </si>
   <si>
-    <t>[-1,1,-1]</t>
-  </si>
-  <si>
-    <t>[1,-1,-1]</t>
+    <t>red</t>
+  </si>
+  <si>
+    <t>green</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -485,7 +485,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -517,7 +517,7 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -578,7 +578,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -607,7 +607,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -627,7 +627,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -667,7 +667,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4CE2B5-9D57-4E08-807A-E956B7C10A10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9180CC-0056-4851-BF46-75832B8CC410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>Stim</t>
   </si>
@@ -433,7 +433,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -569,6 +569,9 @@
       <c r="I4" t="s">
         <v>21</v>
       </c>
+      <c r="J4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -598,6 +601,9 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -618,6 +624,18 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
+      <c r="G6">
+        <v>-3.7999999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -638,6 +656,18 @@
       <c r="F7" t="s">
         <v>15</v>
       </c>
+      <c r="G7">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -658,6 +688,18 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
+      <c r="G8">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.08</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -677,6 +719,18 @@
       </c>
       <c r="F9" t="s">
         <v>17</v>
+      </c>
+      <c r="G9">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>0.04</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
